--- a/ZTPackageDeployment/PkgFolder/Data/calendar/calendars.xlsx
+++ b/ZTPackageDeployment/PkgFolder/Data/calendar/calendars.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DS59695\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DS59695\Desktop\HSL.NFUM.PackageDeployer\HSL.NFUM.PackageDeployer\PkgFolder\Data\calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953C3DEF-4873-42A0-9A50-82DB617CEF7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E55CF7-5341-4198-8CD5-76E3EA384625}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
     <t>Bank holidays for England and Wales</t>
   </si>
   <si>
-    <t>name:ztmsdev</t>
+    <t>name:ztuat</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/ZTPackageDeployment/PkgFolder/Data/calendar/calendars.xlsx
+++ b/ZTPackageDeployment/PkgFolder/Data/calendar/calendars.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DS59695\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE44E6C6-8882-4D2C-BC2F-9A02E0D267DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA02C9DD-6BBC-46A7-93CF-45F7B18B8DB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,10 +77,10 @@
     <t>REG-09 Northern Ireland public holidays</t>
   </si>
   <si>
-    <t>Bank holidays for England and Wales</t>
-  </si>
-  <si>
     <t>name:NFUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank holidays </t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -530,7 +530,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>10</v>
@@ -547,7 +547,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>10</v>
@@ -561,10 +561,10 @@
         <v>15</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>10</v>
